--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44724</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>44811.66237268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44311.54153935185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44384.3640162037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44769.576875</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44840.54688657408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44270</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>44379.32055555555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44354</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44609.66342592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44830.62017361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>44861.43894675926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1405,14 +1405,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60658-2024</t>
+          <t>A 38064-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45644.44567129629</v>
+        <v>44811.66424768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>16.9</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1462,14 +1462,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38064-2022</t>
+          <t>A 38061-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44811.66424768518</v>
+        <v>44811</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1519,14 +1519,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 20198-2023</t>
+          <t>A 60189-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45055.586875</v>
+        <v>45640</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1576,14 +1576,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 38061-2022</t>
+          <t>A 24581-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44811</v>
+        <v>45798.49758101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1633,14 +1633,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 2263-2025</t>
+          <t>A 25554-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45673.52425925926</v>
+        <v>45803.44790509259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1652,8 +1652,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1690,14 +1695,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 2264-2025</t>
+          <t>A 25566-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45673.52872685185</v>
+        <v>45803.45799768518</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1709,8 +1714,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1747,14 +1757,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43924-2022</t>
+          <t>A 35091-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44838.5358449074</v>
+        <v>45527.79959490741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1767,7 +1777,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1804,14 +1814,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47573-2024</t>
+          <t>A 26859-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45587.71979166667</v>
+        <v>45810.67752314815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1824,7 +1834,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.9</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1861,14 +1871,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 24453-2025</t>
+          <t>A 41570-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45798.34398148148</v>
+        <v>45901.60825231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1881,7 +1891,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1918,14 +1928,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59311-2024</t>
+          <t>A 40126-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45637.6818287037</v>
+        <v>45169</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1938,7 +1948,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1975,14 +1985,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 48596-2023</t>
+          <t>A 48865-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45208.49730324074</v>
+        <v>45594.2466087963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1995,7 +2005,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2032,14 +2042,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 16172-2024</t>
+          <t>A 45408-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45406.62850694444</v>
+        <v>45922.43204861111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2052,7 +2062,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2089,14 +2099,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16173-2024</t>
+          <t>A 48596-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45406.63146990741</v>
+        <v>45208.49730324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2109,7 +2119,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2146,14 +2156,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 13718-2025</t>
+          <t>A 46440-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45737</v>
+        <v>45925.64233796296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2165,13 +2175,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2208,14 +2213,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 17712-2025</t>
+          <t>A 46732-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45758</v>
+        <v>45926.59290509259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2228,7 +2233,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2265,14 +2270,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 37286-2022</t>
+          <t>A 46928-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44808</v>
+        <v>45929.44091435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2285,7 +2290,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2322,14 +2327,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 22167-2024</t>
+          <t>A 32665-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45446.24280092592</v>
+        <v>45838</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2342,7 +2347,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2379,14 +2384,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41570-2025</t>
+          <t>A 47817-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45901.60825231481</v>
+        <v>45932.33381944444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2399,7 +2404,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2436,14 +2441,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 49621-2022</t>
+          <t>A 47820-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44862.42416666666</v>
+        <v>45932.34094907407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2456,7 +2461,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2493,14 +2498,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59569-2022</t>
+          <t>A 47844-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44907.60907407408</v>
+        <v>45932.38077546296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2513,7 +2518,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2550,14 +2555,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 51609-2024</t>
+          <t>A 61552-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45604.68818287037</v>
+        <v>45265</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2570,7 +2575,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2607,14 +2612,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 35091-2024</t>
+          <t>A 49951-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45527.79959490741</v>
+        <v>45940.75581018518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2627,7 +2632,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2664,14 +2669,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45408-2025</t>
+          <t>A 46467-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45922.43204861111</v>
+        <v>45197.62421296296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2684,7 +2689,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2721,14 +2726,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 59994-2025</t>
+          <t>A 49950-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45993.56616898148</v>
+        <v>45940.75454861111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2741,7 +2746,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>12.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2778,14 +2783,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2756-2026</t>
+          <t>A 51534-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46038.34368055555</v>
+        <v>45222.40712962963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2798,7 +2803,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2835,14 +2840,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46440-2025</t>
+          <t>A 60658-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45925.64233796296</v>
+        <v>45644.44567129629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2855,7 +2860,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>16.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2892,14 +2897,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2633-2026</t>
+          <t>A 24453-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46037.60989583333</v>
+        <v>45798.34398148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2912,7 +2917,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2949,14 +2954,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 46732-2025</t>
+          <t>A 17712-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45926.59290509259</v>
+        <v>45758</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2969,7 +2974,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3006,14 +3011,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46928-2025</t>
+          <t>A 43924-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45929.44091435185</v>
+        <v>44838.5358449074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3026,7 +3031,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3063,14 +3068,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47817-2025</t>
+          <t>A 2263-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45932.33381944444</v>
+        <v>45673.52425925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3083,7 +3088,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3120,14 +3125,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47820-2025</t>
+          <t>A 60236-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45932.34094907407</v>
+        <v>45642.76790509259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3177,14 +3182,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47844-2025</t>
+          <t>A 51609-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45932.38077546296</v>
+        <v>45604.68818287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3197,7 +3202,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.9</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3234,14 +3239,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49951-2025</t>
+          <t>A 19282-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45940.75581018518</v>
+        <v>45428.66136574074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3254,7 +3259,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3291,14 +3296,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49950-2025</t>
+          <t>A 14832-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45940.75454861111</v>
+        <v>44280.73239583334</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3311,7 +3316,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>12.5</v>
+        <v>1.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3348,14 +3353,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 62479-2025</t>
+          <t>A 35515-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46007.55723379629</v>
+        <v>45147</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3368,7 +3373,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3405,14 +3410,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46467-2023</t>
+          <t>A 21-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45197.62421296296</v>
+        <v>45658.803125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3425,7 +3430,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3462,14 +3467,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35106-2021</t>
+          <t>A 20198-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44384.36292824074</v>
+        <v>45055.586875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3482,7 +3487,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3519,14 +3524,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62477-2025</t>
+          <t>A 17715-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46007.55395833333</v>
+        <v>45758.44545138889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3539,7 +3544,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3576,14 +3581,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17666-2022</t>
+          <t>A 59994-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44680.52545138889</v>
+        <v>45993.56616898148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3596,7 +3601,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3633,14 +3638,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 63585-2025</t>
+          <t>A 2633-2026</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46013.78278935186</v>
+        <v>46037.60989583333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3653,7 +3658,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3690,14 +3695,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58914-2021</t>
+          <t>A 20523-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44489.71137731482</v>
+        <v>44315.74832175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3710,7 +3715,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3747,14 +3752,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 14832-2021</t>
+          <t>A 22167-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44280.73239583334</v>
+        <v>45446.24280092592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3767,7 +3772,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3804,14 +3809,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48864-2024</t>
+          <t>A 2756-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45594.24348379629</v>
+        <v>46038.34368055555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3824,7 +3829,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3861,14 +3866,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 35394-2023</t>
+          <t>A 48864-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45146</v>
+        <v>45594.24348379629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3881,7 +3886,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3918,14 +3923,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60236-2024</t>
+          <t>A 17666-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45642.76790509259</v>
+        <v>44680.52545138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3938,7 +3943,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3975,14 +3980,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60189-2024</t>
+          <t>A 62479-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45640</v>
+        <v>46007.55723379629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3995,7 +4000,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4039,7 +4044,7 @@
         <v>45026</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4089,14 +4094,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31073-2022</t>
+          <t>A 62477-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44769.57590277777</v>
+        <v>46007.55395833333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4109,7 +4114,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4146,14 +4151,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21060-2024</t>
+          <t>A 53943-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45439.75086805555</v>
+        <v>45616.18262731482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4166,7 +4171,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4203,14 +4208,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 21-2025</t>
+          <t>A 16172-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45658.803125</v>
+        <v>45406.62850694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4223,7 +4228,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4260,14 +4265,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12112-2025</t>
+          <t>A 16173-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45729.36171296296</v>
+        <v>45406.63146990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4280,7 +4285,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4317,14 +4322,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11345-2024</t>
+          <t>A 21060-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45372.315625</v>
+        <v>45439.75086805555</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4337,7 +4342,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4374,14 +4379,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 17715-2025</t>
+          <t>A 63585-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45758.44545138889</v>
+        <v>46013.78278935186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4394,7 +4399,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4431,14 +4436,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11171-2025</t>
+          <t>A 13718-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45724.47848379629</v>
+        <v>45737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4450,8 +4455,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4488,14 +4498,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40126-2023</t>
+          <t>A 2264-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45169</v>
+        <v>45673.52872685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4508,7 +4518,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4545,14 +4555,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61552-2023</t>
+          <t>A 35106-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45265</v>
+        <v>44384.36292824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4565,7 +4575,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4602,14 +4612,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 21062-2024</t>
+          <t>A 11345-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45439.77535879629</v>
+        <v>45372.315625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4622,7 +4632,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4659,14 +4669,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19282-2024</t>
+          <t>A 59569-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45428.66136574074</v>
+        <v>44907.60907407408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4679,7 +4689,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4716,14 +4726,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 51534-2023</t>
+          <t>A 31073-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45222.40712962963</v>
+        <v>44769.57590277777</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4736,7 +4746,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4773,14 +4783,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35515-2023</t>
+          <t>A 12112-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45147</v>
+        <v>45729.36171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4793,7 +4803,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4830,14 +4840,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37775-2024</t>
+          <t>A 47573-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45542.42527777778</v>
+        <v>45587.71979166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4850,7 +4860,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4887,14 +4897,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20523-2021</t>
+          <t>A 21062-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44315.74832175926</v>
+        <v>45439.77535879629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4907,7 +4917,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4944,14 +4954,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53943-2024</t>
+          <t>A 35394-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45616.18262731482</v>
+        <v>45146</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4964,7 +4974,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5001,14 +5011,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 48865-2024</t>
+          <t>A 37775-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45594.2466087963</v>
+        <v>45542.42527777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5021,7 +5031,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5058,14 +5068,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8650-2025</t>
+          <t>A 24985-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45712.36020833333</v>
+        <v>45085</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5078,7 +5088,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5115,14 +5125,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 24985-2023</t>
+          <t>A 59311-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45085</v>
+        <v>45637.6818287037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5135,7 +5145,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7.4</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5172,14 +5182,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 24581-2025</t>
+          <t>A 8650-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45798.49758101852</v>
+        <v>45712.36020833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5192,7 +5202,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5229,14 +5239,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25554-2025</t>
+          <t>A 11171-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45803.44790509259</v>
+        <v>45724.47848379629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5248,13 +5258,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5291,14 +5296,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25566-2025</t>
+          <t>A 49621-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45803.45799768518</v>
+        <v>44862.42416666666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5310,13 +5315,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5353,14 +5353,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26859-2025</t>
+          <t>A 37286-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45810.67752314815</v>
+        <v>44808</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32665-2025</t>
+          <t>A 58914-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45838</v>
+        <v>44489.71137731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44724</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>44811.66237268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44311.54153935185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44384.3640162037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44769.576875</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44840.54688657408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44270</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>44379.32055555555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44354</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44609.66342592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44830.62017361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>44861.43894675926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44811.66424768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>44811</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>45640</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45798.49758101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45803.44790509259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45803.45799768518</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>45527.79959490741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45810.67752314815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45901.60825231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45169</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45594.2466087963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45922.43204861111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45208.49730324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>45925.64233796296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>45926.59290509259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>45929.44091435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>45838</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>45932.33381944444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45932.34094907407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>45932.38077546296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>45265</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45940.75581018518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>45197.62421296296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45940.75454861111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>45222.40712962963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45644.44567129629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45798.34398148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>45758</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44838.5358449074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45673.52425925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45642.76790509259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45604.68818287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45428.66136574074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44280.73239583334</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45147</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>45658.803125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45055.586875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>45758.44545138889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>45993.56616898148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>46037.60989583333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44315.74832175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45446.24280092592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>46038.34368055555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>45594.24348379629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44680.52545138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>46007.55723379629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45026</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>46007.55395833333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>45616.18262731482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>45406.62850694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>45406.63146990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>45439.75086805555</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>46013.78278935186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>45737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>45673.52872685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44384.36292824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45372.315625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44907.60907407408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44769.57590277777</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45729.36171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45587.71979166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45439.77535879629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>45146</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45542.42527777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45085</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45637.6818287037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45712.36020833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45724.47848379629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44862.42416666666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44808</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44489.71137731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44724</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>44811.66237268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44311.54153935185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44384.3640162037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44769.576875</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44840.54688657408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44270</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>44379.32055555555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44354</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44609.66342592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44830.62017361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>44861.43894675926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44811.66424768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>44811</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>45640</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>45798.49758101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45803.44790509259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>45803.45799768518</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>45527.79959490741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>45810.67752314815</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         <v>45901.60825231481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45169</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45594.2466087963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45922.43204861111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45208.49730324074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>45925.64233796296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>45926.59290509259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>45929.44091435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>45838</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>45932.33381944444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2448,7 +2448,7 @@
         <v>45932.34094907407</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>45932.38077546296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>45265</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         <v>45940.75581018518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>45197.62421296296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>45940.75454861111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>45222.40712962963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45644.44567129629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>45798.34398148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>45758</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>44838.5358449074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3075,7 +3075,7 @@
         <v>45673.52425925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45642.76790509259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45604.68818287037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45428.66136574074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>44280.73239583334</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45147</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>45658.803125</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45055.586875</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>45758.44545138889</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>45993.56616898148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>46037.60989583333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44315.74832175926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45446.24280092592</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>46038.34368055555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>45594.24348379629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44680.52545138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>46007.55723379629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45026</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>46007.55395833333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>45616.18262731482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>45406.62850694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>45406.63146990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>45439.75086805555</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>46013.78278935186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>45737</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>45673.52872685185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>44384.36292824074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>45372.315625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         <v>44907.60907407408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4733,7 +4733,7 @@
         <v>44769.57590277777</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45729.36171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45587.71979166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45439.77535879629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>45146</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5018,7 +5018,7 @@
         <v>45542.42527777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>45085</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>45637.6818287037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45712.36020833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
         <v>45724.47848379629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>44862.42416666666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>44808</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>44489.71137731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44724</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>44811.66237268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44311.54153935185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44384.3640162037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44769.576875</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44840.54688657408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44270</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>44379.32055555555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44354</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44609.66342592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44830.62017361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>44861.43894675926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44811.66424768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>44811</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 60189-2024</t>
+          <t>A 48596-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45640</v>
+        <v>45208.49730324074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1576,14 +1576,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 24581-2025</t>
+          <t>A 16172-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45798.49758101852</v>
+        <v>45406.62850694444</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1633,14 +1633,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 25554-2025</t>
+          <t>A 16173-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45803.44790509259</v>
+        <v>45406.63146990741</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1652,13 +1652,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1695,14 +1690,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 25566-2025</t>
+          <t>A 17712-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45803.45799768518</v>
+        <v>45758</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1714,13 +1709,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1757,14 +1747,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35091-2024</t>
+          <t>A 37286-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45527.79959490741</v>
+        <v>44808</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1777,7 +1767,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1814,14 +1804,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 26859-2025</t>
+          <t>A 22167-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45810.67752314815</v>
+        <v>45446.24280092592</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1834,7 +1824,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1871,14 +1861,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 41570-2025</t>
+          <t>A 49621-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45901.60825231481</v>
+        <v>44862.42416666666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1891,7 +1881,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1928,14 +1918,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 40126-2023</t>
+          <t>A 35091-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45169</v>
+        <v>45527.79959490741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1948,7 +1938,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1985,14 +1975,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 48865-2024</t>
+          <t>A 46467-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45594.2466087963</v>
+        <v>45197.62421296296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2005,7 +1995,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2042,14 +2032,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45408-2025</t>
+          <t>A 35106-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45922.43204861111</v>
+        <v>44384.36292824074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2062,7 +2052,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2099,14 +2089,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48596-2023</t>
+          <t>A 17666-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45208.49730324074</v>
+        <v>44680.52545138889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2119,7 +2109,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2156,14 +2146,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46440-2025</t>
+          <t>A 2263-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45925.64233796296</v>
+        <v>45673.52425925926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2176,7 +2166,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2213,14 +2203,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46732-2025</t>
+          <t>A 32665-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45926.59290509259</v>
+        <v>45838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2233,7 +2223,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2270,14 +2260,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46928-2025</t>
+          <t>A 58914-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45929.44091435185</v>
+        <v>44489.71137731482</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2290,7 +2280,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2327,14 +2317,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32665-2025</t>
+          <t>A 14832-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45838</v>
+        <v>44280.73239583334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2347,7 +2337,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2384,14 +2374,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47817-2025</t>
+          <t>A 35394-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45932.33381944444</v>
+        <v>45146</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2404,7 +2394,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2441,14 +2431,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47820-2025</t>
+          <t>A 41570-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45932.34094907407</v>
+        <v>45901.60825231481</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2461,7 +2451,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2498,14 +2488,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 47844-2025</t>
+          <t>A 60236-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45932.38077546296</v>
+        <v>45642.76790509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2518,7 +2508,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2555,14 +2545,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 61552-2023</t>
+          <t>A 31073-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45265</v>
+        <v>44769.57590277777</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2575,7 +2565,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2612,14 +2602,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 49951-2025</t>
+          <t>A 45408-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45940.75581018518</v>
+        <v>45922.43204861111</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2632,7 +2622,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2669,14 +2659,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46467-2023</t>
+          <t>A 24453-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45197.62421296296</v>
+        <v>45798.34398148148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2689,7 +2679,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2726,14 +2716,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 49950-2025</t>
+          <t>A 46440-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45940.75454861111</v>
+        <v>45925.64233796296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2746,7 +2736,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>12.5</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2783,14 +2773,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 51534-2023</t>
+          <t>A 46732-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45222.40712962963</v>
+        <v>45926.59290509259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2803,7 +2793,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2840,14 +2830,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60658-2024</t>
+          <t>A 12112-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45644.44567129629</v>
+        <v>45729.36171296296</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2860,7 +2850,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>16.9</v>
+        <v>5.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2897,14 +2887,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24453-2025</t>
+          <t>A 46928-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45798.34398148148</v>
+        <v>45929.44091435185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2917,7 +2907,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2954,14 +2944,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17712-2025</t>
+          <t>A 60658-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45758</v>
+        <v>45644.44567129629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2974,7 +2964,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>16.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3011,14 +3001,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43924-2022</t>
+          <t>A 47817-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44838.5358449074</v>
+        <v>45932.33381944444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3031,7 +3021,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3068,14 +3058,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 2263-2025</t>
+          <t>A 47820-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45673.52425925926</v>
+        <v>45932.34094907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3088,7 +3078,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3125,14 +3115,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60236-2024</t>
+          <t>A 20198-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45642.76790509259</v>
+        <v>45055.586875</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3145,7 +3135,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3182,14 +3172,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 51609-2024</t>
+          <t>A 47844-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45604.68818287037</v>
+        <v>45932.38077546296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3202,7 +3192,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3239,14 +3229,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 19282-2024</t>
+          <t>A 2264-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45428.66136574074</v>
+        <v>45673.52872685185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3259,7 +3249,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3296,14 +3286,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14832-2021</t>
+          <t>A 43924-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44280.73239583334</v>
+        <v>44838.5358449074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3316,7 +3306,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3353,14 +3343,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35515-2023</t>
+          <t>A 49951-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45147</v>
+        <v>45940.75581018518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3373,7 +3363,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3410,14 +3400,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 21-2025</t>
+          <t>A 49950-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45658.803125</v>
+        <v>45940.75454861111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3430,7 +3420,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3467,14 +3457,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 20198-2023</t>
+          <t>A 47573-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45055.586875</v>
+        <v>45587.71979166667</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3487,7 +3477,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3524,14 +3514,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17715-2025</t>
+          <t>A 59311-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45758.44545138889</v>
+        <v>45637.6818287037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3544,7 +3534,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3581,14 +3571,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59994-2025</t>
+          <t>A 59569-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45993.56616898148</v>
+        <v>44907.60907407408</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3601,7 +3591,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3638,14 +3628,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2633-2026</t>
+          <t>A 51609-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>46037.60989583333</v>
+        <v>45604.68818287037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3658,7 +3648,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3695,14 +3685,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20523-2021</t>
+          <t>A 48864-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44315.74832175926</v>
+        <v>45594.24348379629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3752,14 +3742,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22167-2024</t>
+          <t>A 60189-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45446.24280092592</v>
+        <v>45640</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3772,7 +3762,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3809,14 +3799,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2756-2026</t>
+          <t>A 16011-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46038.34368055555</v>
+        <v>45026</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3829,7 +3819,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3866,14 +3856,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48864-2024</t>
+          <t>A 21060-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45594.24348379629</v>
+        <v>45439.75086805555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3886,7 +3876,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3923,14 +3913,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17666-2022</t>
+          <t>A 21-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44680.52545138889</v>
+        <v>45658.803125</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3943,7 +3933,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3980,14 +3970,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 62479-2025</t>
+          <t>A 59994-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>46007.55723379629</v>
+        <v>45993.56616898148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4000,7 +3990,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4037,14 +4027,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16011-2023</t>
+          <t>A 11345-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45026</v>
+        <v>45372.315625</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4057,7 +4047,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4094,14 +4084,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62477-2025</t>
+          <t>A 2756-2026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46007.55395833333</v>
+        <v>46038.34368055555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4114,7 +4104,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4151,14 +4141,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 53943-2024</t>
+          <t>A 2633-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45616.18262731482</v>
+        <v>46037.60989583333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4171,7 +4161,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4208,14 +4198,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 16172-2024</t>
+          <t>A 17715-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45406.62850694444</v>
+        <v>45758.44545138889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4228,7 +4218,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4265,14 +4255,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16173-2024</t>
+          <t>A 62479-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45406.63146990741</v>
+        <v>46007.55723379629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4285,7 +4275,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4322,14 +4312,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 21060-2024</t>
+          <t>A 62477-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45439.75086805555</v>
+        <v>46007.55395833333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4342,7 +4332,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4379,14 +4369,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 63585-2025</t>
+          <t>A 11171-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46013.78278935186</v>
+        <v>45724.47848379629</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4399,7 +4389,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4436,14 +4426,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13718-2025</t>
+          <t>A 40126-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45737</v>
+        <v>45169</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4455,13 +4445,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4498,14 +4483,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2264-2025</t>
+          <t>A 63585-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45673.52872685185</v>
+        <v>46013.78278935186</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4518,7 +4503,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4555,14 +4540,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35106-2021</t>
+          <t>A 61552-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44384.36292824074</v>
+        <v>45265</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4575,7 +4560,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4612,14 +4597,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11345-2024</t>
+          <t>A 21062-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45372.315625</v>
+        <v>45439.77535879629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4632,7 +4617,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4669,14 +4654,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59569-2022</t>
+          <t>A 13718-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44907.60907407408</v>
+        <v>45737</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4688,8 +4673,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4726,14 +4716,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31073-2022</t>
+          <t>A 19282-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44769.57590277777</v>
+        <v>45428.66136574074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4746,7 +4736,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4783,14 +4773,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12112-2025</t>
+          <t>A 51534-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45729.36171296296</v>
+        <v>45222.40712962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4803,7 +4793,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4840,14 +4830,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47573-2024</t>
+          <t>A 35515-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45587.71979166667</v>
+        <v>45147</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4860,7 +4850,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4897,14 +4887,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 21062-2024</t>
+          <t>A 37775-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45439.77535879629</v>
+        <v>45542.42527777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4917,7 +4907,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4954,14 +4944,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35394-2023</t>
+          <t>A 20523-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45146</v>
+        <v>44315.74832175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4974,7 +4964,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5011,14 +5001,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37775-2024</t>
+          <t>A 53943-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45542.42527777778</v>
+        <v>45616.18262731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5031,7 +5021,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5068,14 +5058,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24985-2023</t>
+          <t>A 48865-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45085</v>
+        <v>45594.2466087963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5088,7 +5078,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.4</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5125,14 +5115,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59311-2024</t>
+          <t>A 8650-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45637.6818287037</v>
+        <v>45712.36020833333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5145,7 +5135,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5182,14 +5172,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8650-2025</t>
+          <t>A 24985-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45712.36020833333</v>
+        <v>45085</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5202,7 +5192,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>7.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5239,14 +5229,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11171-2025</t>
+          <t>A 24581-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45724.47848379629</v>
+        <v>45798.49758101852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5259,7 +5249,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5296,14 +5286,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49621-2022</t>
+          <t>A 25554-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44862.42416666666</v>
+        <v>45803.44790509259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5315,8 +5305,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5353,14 +5348,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 37286-2022</t>
+          <t>A 25566-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44808</v>
+        <v>45803.45799768518</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5372,8 +5367,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58914-2021</t>
+          <t>A 26859-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44489.71137731482</v>
+        <v>45810.67752314815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44724</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>44811.66237268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44311.54153935185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44384.3640162037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44769.576875</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44840.54688657408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44270</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>44379.32055555555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         <v>44354</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>44609.66342592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
         <v>44830.62017361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>44861.43894675926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>44811.66424768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>44811</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 48596-2023</t>
+          <t>A 24985-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45208.49730324074</v>
+        <v>45085</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1576,14 +1576,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 16172-2024</t>
+          <t>A 59311-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45406.62850694444</v>
+        <v>45637.6818287037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1633,14 +1633,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 16173-2024</t>
+          <t>A 8650-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45406.63146990741</v>
+        <v>45712.36020833333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1690,14 +1690,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 17712-2025</t>
+          <t>A 60189-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45758</v>
+        <v>45640</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1747,14 +1747,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 37286-2022</t>
+          <t>A 41570-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44808</v>
+        <v>45901.60825231481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1804,14 +1804,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22167-2024</t>
+          <t>A 11171-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45446.24280092592</v>
+        <v>45724.47848379629</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>44862.42416666666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1918,14 +1918,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35091-2024</t>
+          <t>A 37286-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45527.79959490741</v>
+        <v>44808</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1975,14 +1975,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 46467-2023</t>
+          <t>A 58914-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45197.62421296296</v>
+        <v>44489.71137731482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2032,14 +2032,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35106-2021</t>
+          <t>A 35091-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44384.36292824074</v>
+        <v>45527.79959490741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2089,14 +2089,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 17666-2022</t>
+          <t>A 24581-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44680.52545138889</v>
+        <v>45798.49758101852</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2146,14 +2146,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2263-2025</t>
+          <t>A 25554-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45673.52425925926</v>
+        <v>45803.44790509259</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2165,8 +2165,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2203,14 +2208,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 32665-2025</t>
+          <t>A 25566-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45838</v>
+        <v>45803.45799768518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2222,8 +2227,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2260,14 +2270,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 58914-2021</t>
+          <t>A 45408-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44489.71137731482</v>
+        <v>45922.43204861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2280,7 +2290,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2317,14 +2327,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14832-2021</t>
+          <t>A 26859-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44280.73239583334</v>
+        <v>45810.67752314815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2337,7 +2347,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2374,14 +2384,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35394-2023</t>
+          <t>A 46440-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45146</v>
+        <v>45925.64233796296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2394,7 +2404,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2431,14 +2441,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41570-2025</t>
+          <t>A 40126-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45901.60825231481</v>
+        <v>45169</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2451,7 +2461,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2488,14 +2498,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60236-2024</t>
+          <t>A 46732-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45642.76790509259</v>
+        <v>45926.59290509259</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2508,7 +2518,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2545,14 +2555,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31073-2022</t>
+          <t>A 48865-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44769.57590277777</v>
+        <v>45594.2466087963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2565,7 +2575,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2602,14 +2612,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45408-2025</t>
+          <t>A 46928-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45922.43204861111</v>
+        <v>45929.44091435185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2622,7 +2632,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2659,14 +2669,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 24453-2025</t>
+          <t>A 48596-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45798.34398148148</v>
+        <v>45208.49730324074</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2679,7 +2689,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2716,14 +2726,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46440-2025</t>
+          <t>A 47817-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45925.64233796296</v>
+        <v>45932.33381944444</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2736,7 +2746,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2773,14 +2783,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 46732-2025</t>
+          <t>A 47820-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45926.59290509259</v>
+        <v>45932.34094907407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2793,7 +2803,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2830,14 +2840,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12112-2025</t>
+          <t>A 32665-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45729.36171296296</v>
+        <v>45838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2850,7 +2860,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2887,14 +2897,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46928-2025</t>
+          <t>A 47844-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45929.44091435185</v>
+        <v>45932.38077546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2907,7 +2917,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2944,14 +2954,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60658-2024</t>
+          <t>A 61552-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45644.44567129629</v>
+        <v>45265</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2964,7 +2974,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>16.9</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3001,14 +3011,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 47817-2025</t>
+          <t>A 49951-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45932.33381944444</v>
+        <v>45940.75581018518</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3021,7 +3031,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3058,14 +3068,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47820-2025</t>
+          <t>A 46467-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45932.34094907407</v>
+        <v>45197.62421296296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3078,7 +3088,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3115,14 +3125,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 20198-2023</t>
+          <t>A 49950-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45055.586875</v>
+        <v>45940.75454861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3135,7 +3145,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>12.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3172,14 +3182,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47844-2025</t>
+          <t>A 60658-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45932.38077546296</v>
+        <v>45644.44567129629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3192,7 +3202,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.9</v>
+        <v>16.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3229,14 +3239,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2264-2025</t>
+          <t>A 24453-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45673.52872685185</v>
+        <v>45798.34398148148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3249,7 +3259,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3286,14 +3296,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 43924-2022</t>
+          <t>A 51534-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44838.5358449074</v>
+        <v>45222.40712962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3306,7 +3316,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3343,14 +3353,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 49951-2025</t>
+          <t>A 2263-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45940.75581018518</v>
+        <v>45673.52425925926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3363,7 +3373,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3400,14 +3410,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 49950-2025</t>
+          <t>A 17712-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45940.75454861111</v>
+        <v>45758</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3420,7 +3430,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>12.5</v>
+        <v>1.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3457,14 +3467,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 47573-2024</t>
+          <t>A 43924-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45587.71979166667</v>
+        <v>44838.5358449074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3477,7 +3487,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3514,14 +3524,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59311-2024</t>
+          <t>A 60236-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45637.6818287037</v>
+        <v>45642.76790509259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3534,7 +3544,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3571,14 +3581,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59569-2022</t>
+          <t>A 51609-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44907.60907407408</v>
+        <v>45604.68818287037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3591,7 +3601,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3628,14 +3638,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51609-2024</t>
+          <t>A 19282-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45604.68818287037</v>
+        <v>45428.66136574074</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3648,7 +3658,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3685,14 +3695,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48864-2024</t>
+          <t>A 14832-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45594.24348379629</v>
+        <v>44280.73239583334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3705,7 +3715,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3742,14 +3752,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 60189-2024</t>
+          <t>A 35515-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45640</v>
+        <v>45147</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3762,7 +3772,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3799,14 +3809,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16011-2023</t>
+          <t>A 21-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45026</v>
+        <v>45658.803125</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3819,7 +3829,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3856,14 +3866,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 21060-2024</t>
+          <t>A 20198-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45439.75086805555</v>
+        <v>45055.586875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3876,7 +3886,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3913,14 +3923,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21-2025</t>
+          <t>A 17715-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45658.803125</v>
+        <v>45758.44545138889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3933,7 +3943,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.5</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3970,14 +3980,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59994-2025</t>
+          <t>A 20523-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45993.56616898148</v>
+        <v>44315.74832175926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3990,7 +4000,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4027,14 +4037,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11345-2024</t>
+          <t>A 59994-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45372.315625</v>
+        <v>45993.56616898148</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4047,7 +4057,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4084,14 +4094,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2756-2026</t>
+          <t>A 22167-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46038.34368055555</v>
+        <v>45446.24280092592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4104,7 +4114,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4148,7 +4158,7 @@
         <v>46037.60989583333</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4198,14 +4208,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17715-2025</t>
+          <t>A 2756-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45758.44545138889</v>
+        <v>46038.34368055555</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4218,7 +4228,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4255,14 +4265,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 62479-2025</t>
+          <t>A 48864-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46007.55723379629</v>
+        <v>45594.24348379629</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4275,7 +4285,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4312,14 +4322,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62477-2025</t>
+          <t>A 17666-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46007.55395833333</v>
+        <v>44680.52545138889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4332,7 +4342,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4369,14 +4379,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11171-2025</t>
+          <t>A 16011-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45724.47848379629</v>
+        <v>45026</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4389,7 +4399,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4426,14 +4436,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40126-2023</t>
+          <t>A 62479-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45169</v>
+        <v>46007.55723379629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4446,7 +4456,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4483,14 +4493,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 63585-2025</t>
+          <t>A 53943-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46013.78278935186</v>
+        <v>45616.18262731482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4503,7 +4513,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4540,14 +4550,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61552-2023</t>
+          <t>A 16172-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45265</v>
+        <v>45406.62850694444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4560,7 +4570,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4597,14 +4607,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 21062-2024</t>
+          <t>A 16173-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45439.77535879629</v>
+        <v>45406.63146990741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4617,7 +4627,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4654,14 +4664,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13718-2025</t>
+          <t>A 21060-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45737</v>
+        <v>45439.75086805555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4673,13 +4683,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4716,14 +4721,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 19282-2024</t>
+          <t>A 62477-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45428.66136574074</v>
+        <v>46007.55395833333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4736,7 +4741,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4773,14 +4778,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51534-2023</t>
+          <t>A 2264-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45222.40712962963</v>
+        <v>45673.52872685185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4793,7 +4798,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4830,14 +4835,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35515-2023</t>
+          <t>A 63585-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45147</v>
+        <v>46013.78278935186</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4850,7 +4855,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4887,14 +4892,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 37775-2024</t>
+          <t>A 35106-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45542.42527777778</v>
+        <v>44384.36292824074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4907,7 +4912,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4944,14 +4949,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20523-2021</t>
+          <t>A 13718-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44315.74832175926</v>
+        <v>45737</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4963,8 +4968,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5001,14 +5011,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53943-2024</t>
+          <t>A 11345-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45616.18262731482</v>
+        <v>45372.315625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5021,7 +5031,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5058,14 +5068,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 48865-2024</t>
+          <t>A 59569-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45594.2466087963</v>
+        <v>44907.60907407408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5078,7 +5088,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5115,14 +5125,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8650-2025</t>
+          <t>A 31073-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45712.36020833333</v>
+        <v>44769.57590277777</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5135,7 +5145,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5172,14 +5182,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 24985-2023</t>
+          <t>A 12112-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45085</v>
+        <v>45729.36171296296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5192,7 +5202,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5229,14 +5239,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24581-2025</t>
+          <t>A 47573-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45798.49758101852</v>
+        <v>45587.71979166667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5249,7 +5259,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>5.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5286,14 +5296,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25554-2025</t>
+          <t>A 21062-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45803.44790509259</v>
+        <v>45439.77535879629</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5305,13 +5315,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5348,14 +5353,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25566-2025</t>
+          <t>A 35394-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45803.45799768518</v>
+        <v>45146</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5367,13 +5372,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5410,14 +5410,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26859-2025</t>
+          <t>A 37775-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45810.67752314815</v>
+        <v>45542.42527777778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44724</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>44811.66237268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44311.54153935185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44384.3640162037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44769.576875</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44840.54688657408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44270</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>44379.32055555555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,14 +1177,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27635-2021</t>
+          <t>A 8183-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44354</v>
+        <v>44609.66342592592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8183-2022</t>
+          <t>A 49273-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44609.66342592592</v>
+        <v>44861.43894675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42169-2022</t>
+          <t>A 27635-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44830.62017361111</v>
+        <v>44354</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49273-2022</t>
+          <t>A 49621-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44861.43894675926</v>
+        <v>44862.42416666666</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>44811.66424768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,14 +1462,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38061-2022</t>
+          <t>A 42169-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44811</v>
+        <v>44830.62017361111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1519,14 +1519,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 24985-2023</t>
+          <t>A 47573-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45085</v>
+        <v>45587.71979166667</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1576,14 +1576,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 59311-2024</t>
+          <t>A 38061-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45637.6818287037</v>
+        <v>44811</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>6.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1633,14 +1633,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 8650-2025</t>
+          <t>A 35091-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45712.36020833333</v>
+        <v>45527.79959490741</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1690,14 +1690,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60189-2024</t>
+          <t>A 59311-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45640</v>
+        <v>45637.6818287037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1747,14 +1747,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 41570-2025</t>
+          <t>A 48596-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45901.60825231481</v>
+        <v>45208.49730324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1804,14 +1804,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 11171-2025</t>
+          <t>A 16172-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45724.47848379629</v>
+        <v>45406.62850694444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1861,14 +1861,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 49621-2022</t>
+          <t>A 16173-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44862.42416666666</v>
+        <v>45406.63146990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1918,14 +1918,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 37286-2022</t>
+          <t>A 59569-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44808</v>
+        <v>44907.60907407408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1975,14 +1975,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 58914-2021</t>
+          <t>A 51609-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44489.71137731482</v>
+        <v>45604.68818287037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2032,14 +2032,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35091-2024</t>
+          <t>A 17712-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45527.79959490741</v>
+        <v>45758</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2089,14 +2089,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 24581-2025</t>
+          <t>A 37286-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45798.49758101852</v>
+        <v>44808</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2146,14 +2146,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 25554-2025</t>
+          <t>A 22167-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45803.44790509259</v>
+        <v>45446.24280092592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2165,13 +2165,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2208,14 +2203,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 25566-2025</t>
+          <t>A 48864-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45803.45799768518</v>
+        <v>45594.24348379629</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2227,13 +2222,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2270,14 +2260,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 45408-2025</t>
+          <t>A 46467-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45922.43204861111</v>
+        <v>45197.62421296296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2290,7 +2280,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2327,14 +2317,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 26859-2025</t>
+          <t>A 35106-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45810.67752314815</v>
+        <v>44384.36292824074</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2347,7 +2337,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2384,14 +2374,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 46440-2025</t>
+          <t>A 17666-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45925.64233796296</v>
+        <v>44680.52545138889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2404,7 +2394,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2441,14 +2431,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 40126-2023</t>
+          <t>A 26859-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45169</v>
+        <v>45810.67752314815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2461,7 +2451,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2498,14 +2488,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46732-2025</t>
+          <t>A 60189-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45926.59290509259</v>
+        <v>45640</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2518,7 +2508,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2555,14 +2545,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 48865-2024</t>
+          <t>A 16011-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45594.2466087963</v>
+        <v>45026</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2575,7 +2565,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2612,14 +2602,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46928-2025</t>
+          <t>A 58914-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45929.44091435185</v>
+        <v>44489.71137731482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2632,7 +2622,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2669,14 +2659,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48596-2023</t>
+          <t>A 14832-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45208.49730324074</v>
+        <v>44280.73239583334</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2689,7 +2679,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2726,14 +2716,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 47817-2025</t>
+          <t>A 21060-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45932.33381944444</v>
+        <v>45439.75086805555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2746,7 +2736,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2783,14 +2773,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47820-2025</t>
+          <t>A 35394-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45932.34094907407</v>
+        <v>45146</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2803,7 +2793,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2840,14 +2830,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 32665-2025</t>
+          <t>A 60236-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45838</v>
+        <v>45642.76790509259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2860,7 +2850,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2897,14 +2887,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 47844-2025</t>
+          <t>A 21-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45932.38077546296</v>
+        <v>45658.803125</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2917,7 +2907,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.9</v>
+        <v>6.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2954,14 +2944,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 61552-2023</t>
+          <t>A 32665-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45265</v>
+        <v>45838</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2974,7 +2964,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3011,14 +3001,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49951-2025</t>
+          <t>A 11345-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45940.75581018518</v>
+        <v>45372.315625</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3031,7 +3021,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3068,14 +3058,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46467-2023</t>
+          <t>A 35515-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45197.62421296296</v>
+        <v>45147</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3088,7 +3078,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3125,14 +3115,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49950-2025</t>
+          <t>A 37775-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45940.75454861111</v>
+        <v>45542.42527777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3145,7 +3135,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>12.5</v>
+        <v>6.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3182,14 +3172,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60658-2024</t>
+          <t>A 20523-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45644.44567129629</v>
+        <v>44315.74832175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3202,7 +3192,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>16.9</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3239,14 +3229,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24453-2025</t>
+          <t>A 17715-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45798.34398148148</v>
+        <v>45758.44545138889</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3259,7 +3249,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3296,14 +3286,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51534-2023</t>
+          <t>A 31073-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45222.40712962963</v>
+        <v>44769.57590277777</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3316,7 +3306,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3353,14 +3343,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2263-2025</t>
+          <t>A 12112-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45673.52425925926</v>
+        <v>45729.36171296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3373,7 +3363,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3410,14 +3400,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17712-2025</t>
+          <t>A 11171-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45758</v>
+        <v>45724.47848379629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3430,7 +3420,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3467,14 +3457,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43924-2022</t>
+          <t>A 40126-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44838.5358449074</v>
+        <v>45169</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3487,7 +3477,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3524,14 +3514,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60236-2024</t>
+          <t>A 20198-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45642.76790509259</v>
+        <v>45055.586875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3544,7 +3534,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3581,14 +3571,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51609-2024</t>
+          <t>A 24453-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45604.68818287037</v>
+        <v>45798.34398148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3601,7 +3591,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3638,14 +3628,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19282-2024</t>
+          <t>A 2264-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45428.66136574074</v>
+        <v>45673.52872685185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3658,7 +3648,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3695,14 +3685,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14832-2021</t>
+          <t>A 61552-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44280.73239583334</v>
+        <v>45265</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3715,7 +3705,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3752,14 +3742,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35515-2023</t>
+          <t>A 43924-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45147</v>
+        <v>44838.5358449074</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3772,7 +3762,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3809,14 +3799,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 21-2025</t>
+          <t>A 21062-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45658.803125</v>
+        <v>45439.77535879629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3829,7 +3819,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3866,14 +3856,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20198-2023</t>
+          <t>A 19282-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45055.586875</v>
+        <v>45428.66136574074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3886,7 +3876,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3923,14 +3913,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17715-2025</t>
+          <t>A 60658-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45758.44545138889</v>
+        <v>45644.44567129629</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3943,7 +3933,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>16.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3980,14 +3970,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20523-2021</t>
+          <t>A 53943-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44315.74832175926</v>
+        <v>45616.18262731482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4000,7 +3990,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4037,14 +4027,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59994-2025</t>
+          <t>A 2263-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45993.56616898148</v>
+        <v>45673.52425925926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4057,7 +4047,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4094,14 +4084,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22167-2024</t>
+          <t>A 51534-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45446.24280092592</v>
+        <v>45222.40712962963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4114,7 +4104,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4151,14 +4141,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2633-2026</t>
+          <t>A 48865-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46037.60989583333</v>
+        <v>45594.2466087963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4171,7 +4161,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4208,14 +4198,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2756-2026</t>
+          <t>A 41570-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46038.34368055555</v>
+        <v>45901.60825231481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4228,7 +4218,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4265,14 +4255,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 48864-2024</t>
+          <t>A 8650-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45594.24348379629</v>
+        <v>45712.36020833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4285,7 +4275,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4322,14 +4312,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17666-2022</t>
+          <t>A 24985-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44680.52545138889</v>
+        <v>45085</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4342,7 +4332,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>7.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4379,14 +4369,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 16011-2023</t>
+          <t>A 45408-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45026</v>
+        <v>45922.43204861111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4399,7 +4389,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4436,14 +4426,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 62479-2025</t>
+          <t>A 46440-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46007.55723379629</v>
+        <v>45925.64233796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4456,7 +4446,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4493,14 +4483,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53943-2024</t>
+          <t>A 46732-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45616.18262731482</v>
+        <v>45926.59290509259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4513,7 +4503,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4550,14 +4540,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16172-2024</t>
+          <t>A 46928-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45406.62850694444</v>
+        <v>45929.44091435185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4570,7 +4560,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4607,14 +4597,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16173-2024</t>
+          <t>A 47817-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45406.63146990741</v>
+        <v>45932.33381944444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4627,7 +4617,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4664,14 +4654,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 21060-2024</t>
+          <t>A 47820-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45439.75086805555</v>
+        <v>45932.34094907407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4684,7 +4674,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4721,14 +4711,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62477-2025</t>
+          <t>A 47844-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46007.55395833333</v>
+        <v>45932.38077546296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4741,7 +4731,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4778,14 +4768,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2264-2025</t>
+          <t>A 49951-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45673.52872685185</v>
+        <v>45940.75581018518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4798,7 +4788,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4835,14 +4825,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 63585-2025</t>
+          <t>A 49950-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46013.78278935186</v>
+        <v>45940.75454861111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4855,7 +4845,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>12.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4892,14 +4882,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35106-2021</t>
+          <t>A 24581-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44384.36292824074</v>
+        <v>45798.49758101852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4912,7 +4902,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4949,14 +4939,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13718-2025</t>
+          <t>A 25554-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45737</v>
+        <v>45803.44790509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4970,11 +4960,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5011,14 +5001,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 11345-2024</t>
+          <t>A 25566-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45372.315625</v>
+        <v>45803.45799768518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5030,8 +5020,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5068,14 +5063,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59569-2022</t>
+          <t>A 59994-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44907.60907407408</v>
+        <v>45993.56616898148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5088,7 +5083,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5125,14 +5120,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31073-2022</t>
+          <t>A 2756-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44769.57590277777</v>
+        <v>46038.34368055555</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5145,7 +5140,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5182,14 +5177,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 12112-2025</t>
+          <t>A 2633-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45729.36171296296</v>
+        <v>46037.60989583333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5202,7 +5197,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5239,14 +5234,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47573-2024</t>
+          <t>A 62479-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45587.71979166667</v>
+        <v>46007.55723379629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5259,7 +5254,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5296,14 +5291,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21062-2024</t>
+          <t>A 62477-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45439.77535879629</v>
+        <v>46007.55395833333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5316,7 +5311,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5353,14 +5348,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35394-2023</t>
+          <t>A 63585-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45146</v>
+        <v>46013.78278935186</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5373,7 +5368,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5410,14 +5405,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 37775-2024</t>
+          <t>A 13718-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45542.42527777778</v>
+        <v>45737</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5429,8 +5424,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>

--- a/Översikt GRÄSTORP.xlsx
+++ b/Översikt GRÄSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>44384</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44724</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>44811.66237268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44311.54153935185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>44384.3640162037</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         <v>44769.576875</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>44840.54688657408</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44270</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>44379.32055555555</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1177,14 +1177,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8183-2022</t>
+          <t>A 27635-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44609.66342592592</v>
+        <v>44354</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1234,14 +1234,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 49273-2022</t>
+          <t>A 8183-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44861.43894675926</v>
+        <v>44609.66342592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1291,14 +1291,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 27635-2021</t>
+          <t>A 42169-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44354</v>
+        <v>44830.62017361111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1348,14 +1348,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49621-2022</t>
+          <t>A 49273-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44862.42416666666</v>
+        <v>44861.43894675926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>44811.66424768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1462,14 +1462,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 42169-2022</t>
+          <t>A 38061-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44830.62017361111</v>
+        <v>44811</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1519,14 +1519,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 47573-2024</t>
+          <t>A 60189-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45587.71979166667</v>
+        <v>45640</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1576,14 +1576,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 38061-2022</t>
+          <t>A 13718-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44811</v>
+        <v>45737</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1595,8 +1595,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1633,14 +1638,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 35091-2024</t>
+          <t>A 24581-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45527.79959490741</v>
+        <v>45798.49758101852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1653,7 +1658,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1690,14 +1695,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59311-2024</t>
+          <t>A 25554-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45637.6818287037</v>
+        <v>45803.44790509259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1709,8 +1714,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>6.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1747,14 +1757,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48596-2023</t>
+          <t>A 25566-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45208.49730324074</v>
+        <v>45803.45799768518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1766,8 +1776,13 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1804,14 +1819,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 16172-2024</t>
+          <t>A 35091-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45406.62850694444</v>
+        <v>45527.79959490741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1824,7 +1839,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1861,14 +1876,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16173-2024</t>
+          <t>A 26859-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45406.63146990741</v>
+        <v>45810.67752314815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1881,7 +1896,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1918,14 +1933,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 59569-2022</t>
+          <t>A 40126-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44907.60907407408</v>
+        <v>45169</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1938,7 +1953,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1975,14 +1990,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51609-2024</t>
+          <t>A 48865-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45604.68818287037</v>
+        <v>45594.2466087963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1995,7 +2010,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2032,14 +2047,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 17712-2025</t>
+          <t>A 32665-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45758</v>
+        <v>45838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2052,7 +2067,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2089,14 +2104,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37286-2022</t>
+          <t>A 41570-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44808</v>
+        <v>45901.60825231481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2109,7 +2124,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2146,14 +2161,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22167-2024</t>
+          <t>A 48596-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45446.24280092592</v>
+        <v>45208.49730324074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2166,7 +2181,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2203,14 +2218,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48864-2024</t>
+          <t>A 61552-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45594.24348379629</v>
+        <v>45265</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2267,7 +2282,7 @@
         <v>45197.62421296296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2317,14 +2332,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35106-2021</t>
+          <t>A 60658-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44384.36292824074</v>
+        <v>45644.44567129629</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2337,7 +2352,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>16.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2374,14 +2389,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17666-2022</t>
+          <t>A 24453-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44680.52545138889</v>
+        <v>45798.34398148148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2394,7 +2409,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2431,14 +2446,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 26859-2025</t>
+          <t>A 2263-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45810.67752314815</v>
+        <v>45673.52425925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2451,7 +2466,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2488,14 +2503,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60189-2024</t>
+          <t>A 45408-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45640</v>
+        <v>45922.43204861111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2508,7 +2523,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2545,14 +2560,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16011-2023</t>
+          <t>A 46440-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45026</v>
+        <v>45925.64233796296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2565,7 +2580,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2602,14 +2617,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58914-2021</t>
+          <t>A 46732-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44489.71137731482</v>
+        <v>45926.59290509259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2622,7 +2637,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2659,14 +2674,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14832-2021</t>
+          <t>A 46928-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44280.73239583334</v>
+        <v>45929.44091435185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2679,7 +2694,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2716,14 +2731,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21060-2024</t>
+          <t>A 51534-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45439.75086805555</v>
+        <v>45222.40712962963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2736,7 +2751,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2773,14 +2788,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 35394-2023</t>
+          <t>A 47817-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45146</v>
+        <v>45932.33381944444</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2793,7 +2808,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2830,14 +2845,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60236-2024</t>
+          <t>A 47820-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45642.76790509259</v>
+        <v>45932.34094907407</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2887,14 +2902,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21-2025</t>
+          <t>A 47844-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45658.803125</v>
+        <v>45932.38077546296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2907,7 +2922,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.5</v>
+        <v>4.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2944,14 +2959,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 32665-2025</t>
+          <t>A 17712-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45838</v>
+        <v>45758</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2964,7 +2979,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3001,14 +3016,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11345-2024</t>
+          <t>A 43924-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45372.315625</v>
+        <v>44838.5358449074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3021,7 +3036,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3058,14 +3073,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35515-2023</t>
+          <t>A 49951-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45147</v>
+        <v>45940.75581018518</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3078,7 +3093,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3115,14 +3130,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 37775-2024</t>
+          <t>A 49950-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45542.42527777778</v>
+        <v>45940.75454861111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3135,7 +3150,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.4</v>
+        <v>12.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3172,14 +3187,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 20523-2021</t>
+          <t>A 60236-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44315.74832175926</v>
+        <v>45642.76790509259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3192,7 +3207,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3229,14 +3244,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 17715-2025</t>
+          <t>A 51609-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45758.44545138889</v>
+        <v>45604.68818287037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3249,7 +3264,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3286,14 +3301,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 31073-2022</t>
+          <t>A 19282-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44769.57590277777</v>
+        <v>45428.66136574074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3306,7 +3321,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3343,14 +3358,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12112-2025</t>
+          <t>A 14832-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45729.36171296296</v>
+        <v>44280.73239583334</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3363,7 +3378,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3400,14 +3415,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11171-2025</t>
+          <t>A 35515-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45724.47848379629</v>
+        <v>45147</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3420,7 +3435,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3457,14 +3472,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 40126-2023</t>
+          <t>A 21-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45169</v>
+        <v>45658.803125</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3477,7 +3492,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3521,7 +3536,7 @@
         <v>45055.586875</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3571,14 +3586,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 24453-2025</t>
+          <t>A 17715-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45798.34398148148</v>
+        <v>45758.44545138889</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3591,7 +3606,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3628,14 +3643,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2264-2025</t>
+          <t>A 20523-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45673.52872685185</v>
+        <v>44315.74832175926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3648,7 +3663,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3685,14 +3700,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61552-2023</t>
+          <t>A 22167-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45265</v>
+        <v>45446.24280092592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3705,7 +3720,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3742,14 +3757,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43924-2022</t>
+          <t>A 48864-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44838.5358449074</v>
+        <v>45594.24348379629</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3799,14 +3814,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 21062-2024</t>
+          <t>A 17666-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45439.77535879629</v>
+        <v>44680.52545138889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3856,14 +3871,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19282-2024</t>
+          <t>A 16011-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45428.66136574074</v>
+        <v>45026</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3876,7 +3891,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3913,14 +3928,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60658-2024</t>
+          <t>A 53943-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45644.44567129629</v>
+        <v>45616.18262731482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3933,7 +3948,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3970,14 +3985,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 53943-2024</t>
+          <t>A 16172-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45616.18262731482</v>
+        <v>45406.62850694444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3990,7 +4005,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4027,14 +4042,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 2263-2025</t>
+          <t>A 16173-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45673.52425925926</v>
+        <v>45406.63146990741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4047,7 +4062,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4084,14 +4099,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51534-2023</t>
+          <t>A 21060-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45222.40712962963</v>
+        <v>45439.75086805555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4104,7 +4119,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4141,14 +4156,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 48865-2024</t>
+          <t>A 59994-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45594.2466087963</v>
+        <v>45993.56616898148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4161,7 +4176,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4198,14 +4213,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41570-2025</t>
+          <t>A 2633-2026</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45901.60825231481</v>
+        <v>46037.60989583333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4218,7 +4233,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4255,14 +4270,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 8650-2025</t>
+          <t>A 2264-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45712.36020833333</v>
+        <v>45673.52872685185</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4275,7 +4290,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4312,14 +4327,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24985-2023</t>
+          <t>A 2756-2026</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45085</v>
+        <v>46038.34368055555</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4332,7 +4347,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.4</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4369,14 +4384,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45408-2025</t>
+          <t>A 35106-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45922.43204861111</v>
+        <v>44384.36292824074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4389,7 +4404,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4426,14 +4441,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46440-2025</t>
+          <t>A 62479-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45925.64233796296</v>
+        <v>46007.55723379629</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4446,7 +4461,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4483,14 +4498,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 46732-2025</t>
+          <t>A 62477-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45926.59290509259</v>
+        <v>46007.55395833333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4503,7 +4518,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4540,14 +4555,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 46928-2025</t>
+          <t>A 11345-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45929.44091435185</v>
+        <v>45372.315625</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4560,7 +4575,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4597,14 +4612,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 47817-2025</t>
+          <t>A 59569-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45932.33381944444</v>
+        <v>44907.60907407408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4617,7 +4632,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4654,14 +4669,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 47820-2025</t>
+          <t>A 63585-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45932.34094907407</v>
+        <v>46013.78278935186</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4674,7 +4689,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4711,14 +4726,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 47844-2025</t>
+          <t>A 31073-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45932.38077546296</v>
+        <v>44769.57590277777</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4731,7 +4746,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4768,14 +4783,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 49951-2025</t>
+          <t>A 12112-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45940.75581018518</v>
+        <v>45729.36171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4788,7 +4803,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4825,14 +4840,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49950-2025</t>
+          <t>A 47573-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45940.75454861111</v>
+        <v>45587.71979166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4845,7 +4860,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.5</v>
+        <v>5.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4882,14 +4897,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24581-2025</t>
+          <t>A 21062-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45798.49758101852</v>
+        <v>45439.77535879629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4902,7 +4917,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4939,14 +4954,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25554-2025</t>
+          <t>A 35394-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45803.44790509259</v>
+        <v>45146</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4958,13 +4973,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5001,14 +5011,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 25566-2025</t>
+          <t>A 37775-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45803.45799768518</v>
+        <v>45542.42527777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5020,13 +5030,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5063,14 +5068,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59994-2025</t>
+          <t>A 24985-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45993.56616898148</v>
+        <v>45085</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5083,7 +5088,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>7.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5120,14 +5125,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 2756-2026</t>
+          <t>A 59311-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46038.34368055555</v>
+        <v>45637.6818287037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5140,7 +5145,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5177,14 +5182,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2633-2026</t>
+          <t>A 8650-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46037.60989583333</v>
+        <v>45712.36020833333</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5197,7 +5202,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5234,14 +5239,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62479-2025</t>
+          <t>A 11171-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46007.55723379629</v>
+        <v>45724.47848379629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5254,7 +5259,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5291,14 +5296,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 62477-2025</t>
+          <t>A 49621-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46007.55395833333</v>
+        <v>44862.42416666666</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5311,7 +5316,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5348,14 +5353,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 63585-2025</t>
+          <t>A 37286-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46013.78278935186</v>
+        <v>44808</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5368,7 +5373,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5405,14 +5410,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13718-2025</t>
+          <t>A 58914-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45737</v>
+        <v>44489.71137731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5424,13 +5429,8 @@
           <t>GRÄSTORP</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
